--- a/Rekan edited.xlsx
+++ b/Rekan edited.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas Ricardo\Documents\laporan magang\REKAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\xampp\htdocs\rekanumkm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="15360" windowHeight="7755" firstSheet="17" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="ChartOfAccount" sheetId="6" r:id="rId1"/>
@@ -20,18 +20,19 @@
     <sheet name="Jurnal Modal" sheetId="16" r:id="rId6"/>
     <sheet name="Jurnal Penyesuaian" sheetId="15" state="hidden" r:id="rId7"/>
     <sheet name="Buku Besar Aset" sheetId="4" state="hidden" r:id="rId8"/>
-    <sheet name="Buku Besar Kewajiban" sheetId="7" state="hidden" r:id="rId9"/>
-    <sheet name="Buku Besar Ekuitas" sheetId="8" state="hidden" r:id="rId10"/>
-    <sheet name="Buku Besar Pend+HPP" sheetId="9" state="hidden" r:id="rId11"/>
-    <sheet name="Buku Besar Beban" sheetId="10" state="hidden" r:id="rId12"/>
-    <sheet name="Buku Besar Lain-Lain" sheetId="11" state="hidden" r:id="rId13"/>
-    <sheet name="Neraca Saldo" sheetId="5" state="hidden" r:id="rId14"/>
+    <sheet name="Buku Besar Kewajiban" sheetId="7" r:id="rId9"/>
+    <sheet name="Buku Besar Ekuitas" sheetId="8" r:id="rId10"/>
+    <sheet name="Buku Besar Pend+HPP" sheetId="9" r:id="rId11"/>
+    <sheet name="Buku Besar Beban" sheetId="10" r:id="rId12"/>
+    <sheet name="Buku Besar Lain-Lain" sheetId="11" r:id="rId13"/>
+    <sheet name="Neraca Saldo" sheetId="5" r:id="rId14"/>
     <sheet name="Neraca" sheetId="2" r:id="rId15"/>
-    <sheet name="Laba Rugi" sheetId="3" r:id="rId16"/>
-    <sheet name="Fitur-Keuangan" sheetId="17" r:id="rId17"/>
-    <sheet name="Fitur-Perpajakan" sheetId="18" r:id="rId18"/>
-    <sheet name="List PTKP Perpajakan" sheetId="19" r:id="rId19"/>
-    <sheet name="Tarif Pajak Penghasilan PPh21" sheetId="20" r:id="rId20"/>
+    <sheet name="Chart1" sheetId="21" r:id="rId16"/>
+    <sheet name="Laba Rugi" sheetId="3" r:id="rId17"/>
+    <sheet name="Fitur-Keuangan" sheetId="17" r:id="rId18"/>
+    <sheet name="Fitur-Perpajakan" sheetId="18" r:id="rId19"/>
+    <sheet name="List PTKP Perpajakan" sheetId="19" r:id="rId20"/>
+    <sheet name="Tarif Pajak Penghasilan PPh21" sheetId="20" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ChartOfAccount!$A$1:$L$53</definedName>
@@ -42,7 +43,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Jurnal Penjualan'!$A$2:$J$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Neraca Saldo'!$A$1:$C$53</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1039,12 +1040,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1103,6 +1104,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1198,7 +1205,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1275,13 +1282,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1295,6 +1295,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1312,6 +1323,958 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Laba Rugi'!$A$34:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Pendapatan/Beban Di Luar Usaha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7010001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7010002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7020001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Total Pendapatan/Beban Di Luar Usaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Laba Rugi'!$B$34:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-531B-4198-B4B6-9672737C3CB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Laba Rugi'!$A$34:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Pendapatan/Beban Di Luar Usaha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7010001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7010002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7020001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Total Pendapatan/Beban Di Luar Usaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Laba Rugi'!$C$34:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>-50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-531B-4198-B4B6-9672737C3CB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="365171456"/>
+        <c:axId val="365169160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="365171456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365169160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365169160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365171456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="74" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9293311" cy="6075405"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BCDF3E-CD9A-4029-97DB-F3C135D08314}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3698,7 +4661,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3888,8 +4851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO18"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL3" sqref="AL3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4266,8 +5229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5141,8 +6104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5437,18 +6400,18 @@
         <f>C13+C23</f>
         <v>2006825000</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
-      <c r="I26" s="58"/>
+      <c r="I26" s="55"/>
     </row>
     <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -5458,7 +6421,7 @@
       <c r="C27" s="7"/>
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
-      <c r="I27" s="58"/>
+      <c r="I27" s="55"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -5468,7 +6431,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="45"/>
       <c r="E28" s="46"/>
-      <c r="I28" s="58"/>
+      <c r="I28" s="55"/>
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
@@ -5485,7 +6448,7 @@
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="46"/>
-      <c r="I29" s="58"/>
+      <c r="I29" s="55"/>
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
@@ -5502,7 +6465,7 @@
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="46"/>
-      <c r="I30" s="58"/>
+      <c r="I30" s="55"/>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
@@ -5519,7 +6482,7 @@
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="46"/>
-      <c r="I31" s="58"/>
+      <c r="I31" s="55"/>
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
@@ -5536,7 +6499,7 @@
       </c>
       <c r="D32" s="45"/>
       <c r="E32" s="46"/>
-      <c r="I32" s="58"/>
+      <c r="I32" s="55"/>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
@@ -5553,7 +6516,7 @@
       </c>
       <c r="D33" s="45"/>
       <c r="E33" s="46"/>
-      <c r="I33" s="58"/>
+      <c r="I33" s="55"/>
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
@@ -5570,7 +6533,7 @@
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="46"/>
-      <c r="I34" s="58"/>
+      <c r="I34" s="55"/>
     </row>
     <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -5583,7 +6546,7 @@
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="46"/>
-      <c r="I35" s="58"/>
+      <c r="I35" s="55"/>
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
@@ -5591,7 +6554,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="45"/>
       <c r="E36" s="46"/>
-      <c r="I36" s="58"/>
+      <c r="I36" s="55"/>
     </row>
     <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -5601,7 +6564,7 @@
       <c r="C37" s="7"/>
       <c r="D37" s="45"/>
       <c r="E37" s="46"/>
-      <c r="I37" s="58"/>
+      <c r="I37" s="55"/>
       <c r="J37" s="34" t="s">
         <v>295</v>
       </c>
@@ -5622,7 +6585,7 @@
       </c>
       <c r="D38" s="45"/>
       <c r="E38" s="46"/>
-      <c r="I38" s="58"/>
+      <c r="I38" s="55"/>
       <c r="J38" s="34" t="s">
         <v>296</v>
       </c>
@@ -5646,7 +6609,7 @@
       </c>
       <c r="D39" s="45"/>
       <c r="E39" s="46"/>
-      <c r="I39" s="58"/>
+      <c r="I39" s="55"/>
     </row>
     <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -5659,7 +6622,7 @@
       </c>
       <c r="D40" s="45"/>
       <c r="E40" s="46"/>
-      <c r="I40" s="58"/>
+      <c r="I40" s="55"/>
     </row>
     <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
@@ -5672,7 +6635,7 @@
       </c>
       <c r="D41" s="45"/>
       <c r="E41" s="46"/>
-      <c r="I41" s="58"/>
+      <c r="I41" s="55"/>
     </row>
     <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
@@ -5680,7 +6643,7 @@
       <c r="C42" s="7"/>
       <c r="D42" s="45"/>
       <c r="E42" s="46"/>
-      <c r="I42" s="58"/>
+      <c r="I42" s="55"/>
     </row>
     <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -5690,7 +6653,7 @@
       <c r="C43" s="7"/>
       <c r="D43" s="45"/>
       <c r="E43" s="46"/>
-      <c r="I43" s="58"/>
+      <c r="I43" s="55"/>
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
@@ -5707,7 +6670,7 @@
       </c>
       <c r="D44" s="45"/>
       <c r="E44" s="46"/>
-      <c r="I44" s="58"/>
+      <c r="I44" s="55"/>
     </row>
     <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
@@ -5724,7 +6687,7 @@
       </c>
       <c r="D45" s="45"/>
       <c r="E45" s="46"/>
-      <c r="I45" s="58"/>
+      <c r="I45" s="55"/>
     </row>
     <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
@@ -5741,26 +6704,26 @@
       </c>
       <c r="D46" s="45"/>
       <c r="E46" s="46"/>
-      <c r="I46" s="58"/>
+      <c r="I46" s="55"/>
     </row>
     <row r="47" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="53">
+      <c r="A47" s="50">
         <f>ChartOfAccount!J53</f>
         <v>7030001</v>
       </c>
-      <c r="B47" s="53" t="str">
+      <c r="B47" s="50" t="str">
         <f>ChartOfAccount!E53</f>
         <v>Ikhtisar Laba/Rugi</v>
       </c>
-      <c r="C47" s="54">
+      <c r="C47" s="51">
         <f>-'Laba Rugi'!C48</f>
         <v>23825000</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="E47" s="63"/>
-      <c r="I47" s="58"/>
+      <c r="E47" s="60"/>
+      <c r="I47" s="55"/>
     </row>
     <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -5773,7 +6736,7 @@
       </c>
       <c r="D48" s="45"/>
       <c r="E48" s="46"/>
-      <c r="I48" s="58"/>
+      <c r="I48" s="55"/>
     </row>
     <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
@@ -5781,7 +6744,7 @@
       <c r="C49" s="7"/>
       <c r="D49" s="45"/>
       <c r="E49" s="46"/>
-      <c r="I49" s="58"/>
+      <c r="I49" s="55"/>
     </row>
     <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
@@ -5792,12 +6755,12 @@
         <f>C41+C48</f>
         <v>2006825000</v>
       </c>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5809,8 +6772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5963,11 +6926,11 @@
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54">
+      <c r="B15" s="50"/>
+      <c r="C15" s="51">
         <f>C7+C13</f>
         <v>-34700000</v>
       </c>
@@ -6335,8 +7298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6346,7 +7309,7 @@
     <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -6356,7 +7319,7 @@
       <c r="B1" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="F1" s="60"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="34"/>
@@ -6369,7 +7332,7 @@
       <c r="D2" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
@@ -6383,7 +7346,7 @@
       <c r="E3" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="F3" s="60"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
@@ -6392,7 +7355,7 @@
       <c r="E4" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="60"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
@@ -6406,7 +7369,7 @@
       <c r="E5" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="60"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
@@ -6428,7 +7391,7 @@
       <c r="C8" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="F8" s="60"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="39" t="s">
@@ -6452,7 +7415,7 @@
       <c r="E11" t="s">
         <v>190</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="57">
         <f>Neraca!C13</f>
         <v>1231825000</v>
       </c>
@@ -6463,7 +7426,7 @@
       <c r="E12" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="57">
         <f>Neraca!C35</f>
         <v>208000000</v>
       </c>
@@ -6474,7 +7437,7 @@
       <c r="E13" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="58">
         <f>F11/F12</f>
         <v>5.922235576923077</v>
       </c>
@@ -6484,7 +7447,7 @@
       <c r="D14" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="F14" s="60"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C15" s="39" t="s">
@@ -6508,9 +7471,9 @@
       <c r="E17" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="60">
-        <f>Neraca!C19</f>
-        <v>200000000</v>
+      <c r="F17" s="57">
+        <f>Neraca!C13</f>
+        <v>1231825000</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -6519,7 +7482,7 @@
       <c r="E18" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="57">
         <f>Neraca!C8</f>
         <v>124700000</v>
       </c>
@@ -6530,7 +7493,7 @@
       <c r="E19" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="57">
         <f>Neraca!C41</f>
         <v>208000000</v>
       </c>
@@ -6541,9 +7504,9 @@
       <c r="E20" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="58">
         <f>(F17-F18)/F19</f>
-        <v>0.36201923076923076</v>
+        <v>5.3227163461538458</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -6588,7 +7551,7 @@
       <c r="E26" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F26" s="57">
         <f>Neraca!C41</f>
         <v>208000000</v>
       </c>
@@ -6599,7 +7562,7 @@
       <c r="E27" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="60">
+      <c r="F27" s="57">
         <f>Neraca!C48</f>
         <v>1798825000</v>
       </c>
@@ -6610,7 +7573,7 @@
       <c r="E28" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="61">
+      <c r="F28" s="58">
         <f>F26/F27</f>
         <v>0.11563103692688283</v>
       </c>
@@ -6644,9 +7607,9 @@
       <c r="E32" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="60">
-        <f>Neraca!C48</f>
-        <v>1798825000</v>
+      <c r="F32" s="57">
+        <f>Neraca!C41</f>
+        <v>208000000</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
@@ -6655,9 +7618,9 @@
       <c r="E33" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="F33" s="60">
-        <f>Neraca!C54</f>
-        <v>0</v>
+      <c r="F33" s="57">
+        <f>Neraca!C25</f>
+        <v>2006825000</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -6666,9 +7629,9 @@
       <c r="E34" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="F34" s="61" t="e">
+      <c r="F34" s="58">
         <f>F32/F33</f>
-        <v>#DIV/0!</v>
+        <v>0.10364630697743948</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -6715,7 +7678,7 @@
       <c r="E40" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="F40" s="60">
+      <c r="F40" s="57">
         <f>'Laba Rugi'!C15</f>
         <v>-34700000</v>
       </c>
@@ -6726,7 +7689,7 @@
       <c r="E41" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="60">
+      <c r="F41" s="57">
         <f>'Laba Rugi'!C3</f>
         <v>-125000000</v>
       </c>
@@ -6737,7 +7700,7 @@
       <c r="E42" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="F42" s="61">
+      <c r="F42" s="58">
         <f>F40/F41</f>
         <v>0.27760000000000001</v>
       </c>
@@ -6771,7 +7734,7 @@
       <c r="E46" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="F46" s="60">
+      <c r="F46" s="57">
         <f>'Laba Rugi'!C48</f>
         <v>-23825000</v>
       </c>
@@ -6782,7 +7745,7 @@
       <c r="E47" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="60">
+      <c r="F47" s="57">
         <f>'Laba Rugi'!C3</f>
         <v>-125000000</v>
       </c>
@@ -6793,7 +7756,7 @@
       <c r="E48" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="F48" s="61">
+      <c r="F48" s="58">
         <f>F46/F47</f>
         <v>0.19059999999999999</v>
       </c>
@@ -6844,7 +7807,7 @@
       <c r="E54" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="60">
+      <c r="F54" s="57">
         <f>Neraca!C8</f>
         <v>124700000</v>
       </c>
@@ -6855,7 +7818,7 @@
       <c r="E55" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="F55" s="60">
+      <c r="F55" s="57">
         <f>'Laba Rugi'!C10</f>
         <v>90300000</v>
       </c>
@@ -6866,7 +7829,7 @@
       <c r="E56" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="F56" s="61">
+      <c r="F56" s="58">
         <f>F54/F55</f>
         <v>1.3809523809523809</v>
       </c>
@@ -6877,7 +7840,7 @@
         <v>232</v>
       </c>
       <c r="E57" s="43"/>
-      <c r="F57" s="62"/>
+      <c r="F57" s="59"/>
     </row>
     <row r="58" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C58" s="39" t="s">
@@ -6903,7 +7866,7 @@
       <c r="E60" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F60" s="60">
+      <c r="F60" s="57">
         <f>Neraca!C6</f>
         <v>0</v>
       </c>
@@ -6914,7 +7877,7 @@
       <c r="E61" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F61" s="60">
+      <c r="F61" s="57">
         <f>'Laba Rugi'!C3</f>
         <v>-125000000</v>
       </c>
@@ -6925,7 +7888,7 @@
       <c r="E62" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="F62" s="61">
+      <c r="F62" s="58">
         <f>F60/F61</f>
         <v>0</v>
       </c>
@@ -6936,7 +7899,7 @@
         <v>232</v>
       </c>
       <c r="E63" s="43"/>
-      <c r="F63" s="62"/>
+      <c r="F63" s="59"/>
     </row>
     <row r="64" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C64" s="39" t="s">
@@ -6962,7 +7925,7 @@
       <c r="E66" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="F66" s="60">
+      <c r="F66" s="57">
         <f>Neraca!C30</f>
         <v>208000000</v>
       </c>
@@ -6973,7 +7936,7 @@
       <c r="E67" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="F67" s="60">
+      <c r="F67" s="57">
         <f>'Laba Rugi'!C10</f>
         <v>90300000</v>
       </c>
@@ -6984,7 +7947,7 @@
       <c r="E68" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="F68" s="61">
+      <c r="F68" s="58">
         <f>F66/F67</f>
         <v>2.3034330011074196</v>
       </c>
@@ -7002,10 +7965,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7416,11 +8379,21 @@
       <c r="F22" s="8" t="s">
         <v>284</v>
       </c>
+      <c r="I22">
+        <v>123825000</v>
+      </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="G23" s="35" t="s">
         <v>285</v>
       </c>
+      <c r="I23" s="8">
+        <f>ABS('Laba Rugi'!C47)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="62">
+        <v>123825000</v>
+      </c>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="G24" s="39" t="s">
@@ -7430,8 +8403,8 @@
         <v>252</v>
       </c>
       <c r="I24" s="8">
-        <f>ABS('Laba Rugi'!C48)</f>
-        <v>23825000</v>
+        <f>I22*12</f>
+        <v>1485900000</v>
       </c>
       <c r="L24" s="39" t="s">
         <v>292</v>
@@ -7466,6 +8439,10 @@
       <c r="H25" s="35" t="s">
         <v>286</v>
       </c>
+      <c r="J25" s="8">
+        <f>J23*12</f>
+        <v>1485900000</v>
+      </c>
       <c r="L25" s="35"/>
       <c r="M25" s="35" t="s">
         <v>286</v>
@@ -7514,9 +8491,7 @@
       <c r="H27" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="I27" s="8">
-        <v>4500000</v>
-      </c>
+      <c r="I27" s="8"/>
       <c r="M27" s="35" t="s">
         <v>288</v>
       </c>
@@ -7623,8 +8598,12 @@
         <v>268</v>
       </c>
       <c r="I31" s="18">
-        <f>I24-SUM(I26:I30)</f>
-        <v>-48175000</v>
+        <f>J25-SUM(I26:I30)</f>
+        <v>1418400000</v>
+      </c>
+      <c r="J31" s="37">
+        <f>I31-J33</f>
+        <v>1368400000</v>
       </c>
       <c r="L31" s="35"/>
       <c r="M31" s="34" t="s">
@@ -7673,14 +8652,23 @@
       </c>
       <c r="T32" s="8"/>
     </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G33" s="39" t="s">
         <v>271</v>
       </c>
       <c r="H33" s="47">
         <v>0.05</v>
       </c>
-      <c r="I33" s="35"/>
+      <c r="I33" s="37">
+        <f>J33*H33</f>
+        <v>2500000</v>
+      </c>
+      <c r="J33">
+        <v>50000000</v>
+      </c>
+      <c r="K33" s="61">
+        <v>24585000</v>
+      </c>
       <c r="L33" s="39"/>
       <c r="M33" s="47">
         <v>0.05</v>
@@ -7713,7 +8701,13 @@
       <c r="H34" s="47">
         <v>0.15</v>
       </c>
-      <c r="I34" s="35"/>
+      <c r="I34" s="37">
+        <f>J31*H34</f>
+        <v>205260000</v>
+      </c>
+      <c r="J34">
+        <v>250000000</v>
+      </c>
       <c r="L34" s="39"/>
       <c r="M34" s="47">
         <v>0.15</v>
@@ -7733,14 +8727,20 @@
         <v>19200000</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G35" s="39" t="s">
         <v>273</v>
       </c>
       <c r="H35" s="47">
         <v>0.25</v>
       </c>
-      <c r="I35" s="35"/>
+      <c r="I35" s="35">
+        <f>(I31-J33-J34)*H35</f>
+        <v>279600000</v>
+      </c>
+      <c r="J35" s="61">
+        <v>500000000</v>
+      </c>
       <c r="L35" s="39"/>
       <c r="M35" s="47">
         <v>0.25</v>
@@ -7759,14 +8759,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G36" s="39" t="s">
         <v>274</v>
       </c>
       <c r="H36" s="47">
         <v>0.3</v>
       </c>
-      <c r="I36" s="35"/>
+      <c r="I36" s="37">
+        <f>(I31-J33-J34-J35)*H36</f>
+        <v>185520000</v>
+      </c>
+      <c r="J36" s="66"/>
       <c r="L36" s="39"/>
       <c r="M36" s="47">
         <v>0.3</v>
@@ -7790,9 +8794,9 @@
       <c r="H37" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="I37" s="35">
+      <c r="I37" s="37">
         <f>SUM(I33:I36)</f>
-        <v>0</v>
+        <v>672880000</v>
       </c>
       <c r="L37" s="35"/>
       <c r="M37" s="34" t="s">
@@ -7817,6 +8821,12 @@
       <c r="T37" s="8">
         <f>SUM(T33:T36)</f>
         <v>21700000</v>
+      </c>
+    </row>
+    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="I38" s="67">
+        <f>I37/12</f>
+        <v>56073333.333333336</v>
       </c>
     </row>
   </sheetData>
@@ -7829,7 +8839,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8031,7 +9041,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="H2:J11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8049,17 +9059,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="G1" s="50" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="G1" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -8143,7 +9153,7 @@
         <v>Bank</v>
       </c>
       <c r="J4" s="15">
-        <f t="shared" ref="J4:J11" si="1">-E4</f>
+        <f t="shared" ref="J4:J10" si="1">-E4</f>
         <v>0</v>
       </c>
     </row>
@@ -8358,12 +9368,12 @@
       <c r="E12" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
@@ -8386,7 +9396,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8445,7 +9455,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8463,17 +9473,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="G1" s="50" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="G1" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -8692,8 +9702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F15"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8712,18 +9722,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="H1" s="50" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="H1" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -9207,7 +10217,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9226,18 +10236,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="H1" s="50" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="H1" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -9450,7 +10460,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J37:K38"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9463,24 +10473,24 @@
     <col min="6" max="6" width="23.125" style="8" customWidth="1"/>
     <col min="7" max="7" width="2" style="23" customWidth="1"/>
     <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="H1" s="50" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="H1" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -9742,14 +10752,14 @@
       </c>
     </row>
     <row r="37" spans="10:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
     </row>
     <row r="38" spans="10:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="J38" s="59" t="s">
+      <c r="J38" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="K38" s="59">
+      <c r="K38" s="56">
         <f>C25-C50</f>
         <v>0</v>
       </c>
@@ -9761,6 +10771,7 @@
     <mergeCell ref="H1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9788,18 +10799,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="H1" s="50" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="H1" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -9956,21 +10967,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU25"/>
+  <dimension ref="A1:AU26"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="AH1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="1.75" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.75" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="1.75" customWidth="1"/>
-    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="1.75" customWidth="1"/>
-    <col min="14" max="14" width="24.625" customWidth="1"/>
+    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="1.75" customWidth="1"/>
     <col min="17" max="17" width="12.75" customWidth="1"/>
     <col min="18" max="18" width="1.75" customWidth="1"/>
@@ -9981,13 +10997,13 @@
     <col min="26" max="26" width="13.75" customWidth="1"/>
     <col min="27" max="27" width="1.75" customWidth="1"/>
     <col min="28" max="28" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="1.75" customWidth="1"/>
     <col min="31" max="31" width="8.5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="1.75" customWidth="1"/>
     <col min="34" max="34" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="1.75" customWidth="1"/>
     <col min="37" max="37" width="8.5" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.375" customWidth="1"/>
@@ -10474,6 +11490,11 @@
         <v>-5000000</v>
       </c>
     </row>
+    <row r="26" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="61">
+        <v>1004275000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10485,7 +11506,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
